--- a/raw_data/20200818_saline/20200818_Sensor1_Test_14.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_14.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D1927-3EDC-4511-8E40-2E6F126F397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>11887.045596</v>
       </c>
       <c r="B2" s="1">
-        <v>3.301957</v>
+        <v>3.3019569999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>897.255000</v>
+        <v>897.255</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.984000</v>
+        <v>-198.98400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>11897.686269</v>
@@ -496,88 +912,88 @@
         <v>3.304913</v>
       </c>
       <c r="H2" s="1">
-        <v>915.091000</v>
+        <v>915.09100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.546000</v>
+        <v>-168.54599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>11907.903855</v>
       </c>
       <c r="L2" s="1">
-        <v>3.307751</v>
+        <v>3.3077510000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>938.613000</v>
+        <v>938.61300000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.563000</v>
+        <v>-119.563</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>11918.101635</v>
+        <v>11918.101635000001</v>
       </c>
       <c r="Q2" s="1">
         <v>3.310584</v>
       </c>
       <c r="R2" s="1">
-        <v>945.373000</v>
+        <v>945.37300000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.315000</v>
+        <v>-103.315</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>11928.297365</v>
       </c>
       <c r="V2" s="1">
-        <v>3.313416</v>
+        <v>3.3134160000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>952.001000</v>
+        <v>952.00099999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.226100</v>
+        <v>-88.226100000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>11938.398921</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.316222</v>
+        <v>3.3162219999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.050000</v>
+        <v>959.05</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.791200</v>
+        <v>-76.791200000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>11948.660617</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.319072</v>
+        <v>3.3190719999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.670000</v>
+        <v>963.67</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.576100</v>
+        <v>-74.576099999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>11958.717531</v>
@@ -586,118 +1002,118 @@
         <v>3.321866</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.841000</v>
+        <v>970.84100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.318400</v>
+        <v>-79.318399999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>11969.305598</v>
+        <v>11969.305598000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.324807</v>
+        <v>3.3248069999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.829000</v>
+        <v>978.82899999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.894300</v>
+        <v>-90.894300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>11980.611407</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.327948</v>
+        <v>3.3279480000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.632000</v>
+        <v>988.63199999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.576000</v>
+        <v>-108.57599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>11991.446018</v>
+        <v>11991.446018000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.330957</v>
+        <v>3.3309570000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.801000</v>
+        <v>996.80100000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.203000</v>
+        <v>-124.203</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>12002.468115</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.334019</v>
+        <v>3.3340190000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.010000</v>
+        <v>1035.01</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.219000</v>
+        <v>-196.21899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>12013.850831</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.337181</v>
+        <v>3.3371810000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.900000</v>
+        <v>1100.9000000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.580000</v>
+        <v>-313.58</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>12024.951268</v>
+        <v>12024.951268000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.340264</v>
+        <v>3.3402639999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.592000</v>
+        <v>-499.59199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>12035.715942</v>
+        <v>12035.715942000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.343254</v>
+        <v>3.3432539999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.212000</v>
+        <v>-704.21199999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>12046.457305</v>
@@ -706,288 +1122,288 @@
         <v>3.346238</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1466.160000</v>
+        <v>1466.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-923.337000</v>
+        <v>-923.33699999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>12058.600359</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.349611</v>
+        <v>3.3496109999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.490000</v>
+        <v>1826.49</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1443.280000</v>
+        <v>-1443.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>11887.826329</v>
       </c>
       <c r="B3" s="1">
-        <v>3.302174</v>
+        <v>3.3021739999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>896.957000</v>
+        <v>896.95699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.115000</v>
+        <v>-199.11500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>11898.107608</v>
       </c>
       <c r="G3" s="1">
-        <v>3.305030</v>
+        <v>3.3050299999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.141000</v>
+        <v>915.14099999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.767000</v>
+        <v>-168.767</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>11908.248575</v>
       </c>
       <c r="L3" s="1">
-        <v>3.307847</v>
+        <v>3.3078470000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>938.577000</v>
+        <v>938.577</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.668000</v>
+        <v>-119.66800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>11918.451809</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.310681</v>
+        <v>3.3106810000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>945.360000</v>
+        <v>945.36</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.325000</v>
+        <v>-103.325</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>11928.676340</v>
+        <v>11928.67634</v>
       </c>
       <c r="V3" s="1">
-        <v>3.313521</v>
+        <v>3.3135210000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>951.919000</v>
+        <v>951.91899999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.316800</v>
+        <v>-88.316800000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>11938.782294</v>
+        <v>11938.782294000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.316328</v>
+        <v>3.3163279999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.877000</v>
+        <v>958.87699999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.726300</v>
+        <v>-76.726299999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>11949.109002</v>
+        <v>11949.109001999999</v>
       </c>
       <c r="AF3" s="1">
         <v>3.319197</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.680000</v>
+        <v>963.68</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.547700</v>
+        <v>-74.547700000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>11959.125742</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.321979</v>
+        <v>3.3219789999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.826000</v>
+        <v>970.82600000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.324900</v>
+        <v>-79.3249</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>11970.055054</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.325015</v>
+        <v>3.3250150000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.826000</v>
+        <v>978.82600000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.913400</v>
+        <v>-90.913399999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>11981.049375</v>
+        <v>11981.049375000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.328069</v>
+        <v>3.3280690000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.625000</v>
+        <v>988.625</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.583000</v>
+        <v>-108.583</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>11991.820993</v>
+        <v>11991.820992999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>3.331061</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.811000</v>
+        <v>996.81100000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.204000</v>
+        <v>-124.20399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>12002.831766</v>
+        <v>12002.831765999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.334120</v>
+        <v>3.33412</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.040000</v>
+        <v>1035.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.224000</v>
+        <v>-196.22399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>12014.226770</v>
+        <v>12014.226769999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.337285</v>
+        <v>3.3372850000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.608000</v>
+        <v>-313.608</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>12025.377364</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.340383</v>
+        <v>3.3403830000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.200000</v>
+        <v>1208.2</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.602000</v>
+        <v>-499.60199999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>12036.160357</v>
+        <v>12036.160357000001</v>
       </c>
       <c r="BT3" s="1">
         <v>3.343378</v>
       </c>
       <c r="BU3" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.321000</v>
+        <v>-704.32100000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>12046.921597</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.346367</v>
+        <v>3.3463669999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1466.180000</v>
+        <v>1466.18</v>
       </c>
       <c r="CA3" s="1">
-        <v>-923.440000</v>
+        <v>-923.44</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>12059.195063</v>
+        <v>12059.195062999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.349776</v>
+        <v>3.3497759999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.070000</v>
+        <v>1827.07</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1444.880000</v>
+        <v>-1444.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>11888.055956</v>
       </c>
@@ -995,28 +1411,28 @@
         <v>3.302238</v>
       </c>
       <c r="C4" s="1">
-        <v>897.015000</v>
+        <v>897.01499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.030000</v>
+        <v>-199.03</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>11898.450108</v>
+        <v>11898.450108000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.305125</v>
+        <v>3.3051249999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>915.058000</v>
+        <v>915.05799999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.594000</v>
+        <v>-168.59399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>11908.597758</v>
@@ -1025,13 +1441,13 @@
         <v>3.307944</v>
       </c>
       <c r="M4" s="1">
-        <v>938.671000</v>
+        <v>938.67100000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.502000</v>
+        <v>-119.502</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>11918.801963</v>
@@ -1040,163 +1456,163 @@
         <v>3.310778</v>
       </c>
       <c r="R4" s="1">
-        <v>945.346000</v>
+        <v>945.346</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>11929.080547</v>
       </c>
       <c r="V4" s="1">
-        <v>3.313633</v>
+        <v>3.3136329999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>951.911000</v>
+        <v>951.91099999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.319900</v>
+        <v>-88.319900000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>11939.190998</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.316442</v>
+        <v>3.3164419999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.917000</v>
+        <v>958.91700000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.691700</v>
+        <v>-76.691699999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>11949.335176</v>
+        <v>11949.335176000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.319260</v>
+        <v>3.3192599999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.647000</v>
+        <v>963.64700000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.538400</v>
+        <v>-74.538399999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>11959.446656</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.322069</v>
+        <v>3.3220689999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.833000</v>
+        <v>970.83299999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.306100</v>
+        <v>-79.306100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>11970.419612</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.325117</v>
+        <v>3.3251170000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.838000</v>
+        <v>978.83799999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.919700</v>
+        <v>-90.919700000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>11981.413469</v>
+        <v>11981.413468999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.328170</v>
+        <v>3.3281700000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.640000</v>
+        <v>988.64</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.600000</v>
+        <v>-108.6</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>11992.177120</v>
+        <v>11992.17712</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.331160</v>
+        <v>3.3311600000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.817000</v>
+        <v>996.81700000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.237000</v>
+        <v>-124.23699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>12003.190289</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.334220</v>
+        <v>3.3342200000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.216000</v>
+        <v>-196.21600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>12014.996562</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.337499</v>
+        <v>3.3374990000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.850000</v>
+        <v>1100.8499999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.601000</v>
+        <v>-313.601</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>12025.797939</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.340499</v>
+        <v>3.3404989999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.200000</v>
+        <v>1208.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.603000</v>
+        <v>-499.60300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>12036.596341</v>
@@ -1205,60 +1621,60 @@
         <v>3.343499</v>
       </c>
       <c r="BU4" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="BV4" s="1">
-        <v>-704.463000</v>
+        <v>-704.46299999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>12047.366472</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.346491</v>
+        <v>3.3464909999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1466.220000</v>
+        <v>1466.22</v>
       </c>
       <c r="CA4" s="1">
-        <v>-923.245000</v>
+        <v>-923.245</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>12059.734712</v>
+        <v>12059.734711999999</v>
       </c>
       <c r="CD4" s="1">
         <v>3.349926</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.220000</v>
+        <v>1827.22</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1442.880000</v>
+        <v>-1442.88</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>11888.394714</v>
       </c>
       <c r="B5" s="1">
-        <v>3.302332</v>
+        <v>3.3023319999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>897.122000</v>
+        <v>897.12199999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.099000</v>
+        <v>-199.09899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>11898.785899</v>
@@ -1267,73 +1683,73 @@
         <v>3.305218</v>
       </c>
       <c r="H5" s="1">
-        <v>915.676000</v>
+        <v>915.67600000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.636000</v>
+        <v>-168.636</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>11909.019359</v>
       </c>
       <c r="L5" s="1">
-        <v>3.308061</v>
+        <v>3.3080609999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>938.538000</v>
+        <v>938.53800000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.564000</v>
+        <v>-119.56399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>11919.223553</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.310895</v>
+        <v>3.3108949999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>945.336000</v>
+        <v>945.33600000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.306000</v>
+        <v>-103.306</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>11929.363763</v>
+        <v>11929.363762999999</v>
       </c>
       <c r="V5" s="1">
-        <v>3.313712</v>
+        <v>3.3137120000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>951.839000</v>
+        <v>951.83900000000006</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.263000</v>
+        <v>-88.263000000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>11939.502518</v>
+        <v>11939.502517999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.316528</v>
+        <v>3.3165279999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.966000</v>
+        <v>958.96600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.784700</v>
+        <v>-76.784700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>11949.679928</v>
@@ -1342,210 +1758,210 @@
         <v>3.319356</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.663000</v>
+        <v>963.66300000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.544800</v>
+        <v>-74.544799999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>11959.795835</v>
+        <v>11959.795835000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.322166</v>
+        <v>3.3221660000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.826000</v>
+        <v>970.82600000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.307600</v>
+        <v>-79.307599999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>11970.778220</v>
+        <v>11970.77822</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.325216</v>
+        <v>3.3252160000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.846000</v>
+        <v>978.846</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.920800</v>
+        <v>-90.9208</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>11981.777997</v>
+        <v>11981.777996999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.328272</v>
+        <v>3.3282720000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.631000</v>
+        <v>988.63099999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.592000</v>
+        <v>-108.592</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>11992.902271</v>
+        <v>11992.902271000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.331362</v>
+        <v>3.3313619999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.786000</v>
+        <v>996.78599999999994</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.195000</v>
+        <v>-124.19499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>12003.915938</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.334421</v>
+        <v>3.3344209999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.223000</v>
+        <v>-196.22300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>12015.374049</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.337604</v>
+        <v>3.3376039999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.604000</v>
+        <v>-313.60399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>12026.195731</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.340610</v>
+        <v>3.3406099999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.230000</v>
+        <v>1208.23</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.627000</v>
+        <v>-499.62700000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>12037.022933</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.343617</v>
+        <v>3.3436170000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="BV5" s="1">
-        <v>-704.493000</v>
+        <v>-704.49300000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>12047.800501</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.346611</v>
+        <v>3.3466109999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1466.160000</v>
+        <v>1466.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-923.303000</v>
+        <v>-923.303</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>12060.571496</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.350159</v>
+        <v>3.3501590000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1827.770000</v>
+        <v>1827.77</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1444.510000</v>
+        <v>-1444.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>11888.836649</v>
+        <v>11888.836649000001</v>
       </c>
       <c r="B6" s="1">
-        <v>3.302455</v>
+        <v>3.3024550000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>896.923000</v>
+        <v>896.923</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.063000</v>
+        <v>-199.06299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>11899.205050</v>
+        <v>11899.20505</v>
       </c>
       <c r="G6" s="1">
-        <v>3.305335</v>
+        <v>3.3053349999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>914.985000</v>
+        <v>914.98500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.697000</v>
+        <v>-168.697</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>11909.297613</v>
+        <v>11909.297613000001</v>
       </c>
       <c r="L6" s="1">
         <v>3.308138</v>
       </c>
       <c r="M6" s="1">
-        <v>938.581000</v>
+        <v>938.58100000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.600000</v>
+        <v>-119.6</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>11919.500816</v>
@@ -1554,225 +1970,225 @@
         <v>3.310972</v>
       </c>
       <c r="R6" s="1">
-        <v>945.364000</v>
+        <v>945.36400000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>11929.706994</v>
       </c>
       <c r="V6" s="1">
-        <v>3.313807</v>
+        <v>3.3138070000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>951.898000</v>
+        <v>951.89800000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.275100</v>
+        <v>-88.275099999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>11939.852165</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.316626</v>
+        <v>3.3166259999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.963000</v>
+        <v>958.96299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.716100</v>
+        <v>-76.716099999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>11950.030071</v>
+        <v>11950.030070999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.319453</v>
+        <v>3.3194530000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.653000</v>
+        <v>963.65300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.548600</v>
+        <v>-74.548599999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>11960.143994</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.322262</v>
+        <v>3.3222619999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.815000</v>
+        <v>970.81500000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.326300</v>
+        <v>-79.326300000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>11971.502875</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.325417</v>
+        <v>3.3254169999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.839000</v>
+        <v>978.83900000000006</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.912700</v>
+        <v>-90.912700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>11982.508605</v>
+        <v>11982.508605000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.328475</v>
+        <v>3.3284750000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.641000</v>
+        <v>988.64099999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.582000</v>
+        <v>-108.58199999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>11993.279232</v>
+        <v>11993.279232000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.331466</v>
+        <v>3.3314659999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.788000</v>
+        <v>996.78800000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.209000</v>
+        <v>-124.209</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>12004.303344</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.334529</v>
+        <v>3.3345289999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.040000</v>
+        <v>1035.04</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.237000</v>
+        <v>-196.23699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>12015.747195</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.337708</v>
+        <v>3.3377080000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.629000</v>
+        <v>-313.62900000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>12026.617826</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.340727</v>
+        <v>3.3407269999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.619000</v>
+        <v>-499.61900000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>12037.737637</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.343816</v>
+        <v>3.3438159999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="BV6" s="1">
-        <v>-704.674000</v>
+        <v>-704.67399999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>12048.515701</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.346810</v>
+        <v>3.3468100000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1466.170000</v>
+        <v>1466.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-923.369000</v>
+        <v>-923.36900000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>12060.812021</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.350226</v>
+        <v>3.3502260000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.560000</v>
+        <v>1827.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1444.430000</v>
+        <v>-1444.43</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>11889.091724</v>
       </c>
       <c r="B7" s="1">
-        <v>3.302525</v>
+        <v>3.3025250000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>896.873000</v>
+        <v>896.87300000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.080000</v>
+        <v>-199.08</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>11899.492698</v>
@@ -1781,208 +2197,208 @@
         <v>3.305415</v>
       </c>
       <c r="H7" s="1">
-        <v>914.771000</v>
+        <v>914.77099999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.111000</v>
+        <v>-168.11099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>11909.646848</v>
       </c>
       <c r="L7" s="1">
-        <v>3.308235</v>
+        <v>3.3082349999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>938.547000</v>
+        <v>938.54700000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.737000</v>
+        <v>-119.73699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>11919.851024</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.311070</v>
+        <v>3.31107</v>
       </c>
       <c r="R7" s="1">
-        <v>945.340000</v>
+        <v>945.34</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>11930.051219</v>
+        <v>11930.051219000001</v>
       </c>
       <c r="V7" s="1">
-        <v>3.313903</v>
+        <v>3.3139029999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>951.892000</v>
+        <v>951.89200000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.257000</v>
+        <v>-88.257000000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>11940.199366</v>
+        <v>11940.199366000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.316722</v>
+        <v>3.3167219999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.940000</v>
+        <v>958.94</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.704000</v>
+        <v>-76.703999999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>11950.717063</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.319644</v>
+        <v>3.3196439999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.665000</v>
+        <v>963.66499999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.566400</v>
+        <v>-74.566400000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11960.843849</v>
+        <v>11960.843849000001</v>
       </c>
       <c r="AK7" s="1">
         <v>3.322457</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.818000</v>
+        <v>970.81799999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.298500</v>
+        <v>-79.298500000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>11971.881322</v>
+        <v>11971.881321999999</v>
       </c>
       <c r="AP7" s="1">
         <v>3.325523</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.839000</v>
+        <v>978.83900000000006</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.919500</v>
+        <v>-90.919499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>11982.893501</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.328582</v>
+        <v>3.3285819999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.644000</v>
+        <v>988.64400000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>11993.663630</v>
+        <v>11993.663629999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.331573</v>
+        <v>3.3315730000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.801000</v>
+        <v>996.80100000000004</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.218000</v>
+        <v>-124.218</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>12004.665391</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.334629</v>
+        <v>3.3346290000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.230000</v>
+        <v>-196.23</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>12016.430992</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.337897</v>
+        <v>3.3378969999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.612000</v>
+        <v>-313.61200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>12027.320161</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.340922</v>
+        <v>3.3409219999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.220000</v>
+        <v>1208.22</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.632000</v>
+        <v>-499.63200000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>12037.868083</v>
+        <v>12037.868082999999</v>
       </c>
       <c r="BT7" s="1">
         <v>3.343852</v>
       </c>
       <c r="BU7" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="BV7" s="1">
-        <v>-704.624000</v>
+        <v>-704.62400000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>12048.673429</v>
@@ -1991,105 +2407,105 @@
         <v>3.346854</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1466.150000</v>
+        <v>1466.15</v>
       </c>
       <c r="CA7" s="1">
-        <v>-923.358000</v>
+        <v>-923.35799999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>12061.329348</v>
+        <v>12061.329347999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.350369</v>
+        <v>3.3503690000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1828.060000</v>
+        <v>1828.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1443.440000</v>
+        <v>-1443.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>11889.430393</v>
+        <v>11889.430393000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.302620</v>
+        <v>3.3026200000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>897.260000</v>
+        <v>897.26</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.097000</v>
+        <v>-199.09700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>11899.836426</v>
       </c>
       <c r="G8" s="1">
-        <v>3.305510</v>
+        <v>3.3055099999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>915.163000</v>
+        <v>915.16300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.690000</v>
+        <v>-168.69</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>11909.992508</v>
+        <v>11909.992507999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.308331</v>
+        <v>3.3083309999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>938.468000</v>
+        <v>938.46799999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.436000</v>
+        <v>-119.43600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>11920.196735</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.311166</v>
+        <v>3.3111660000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>945.346000</v>
+        <v>945.346</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.334000</v>
+        <v>-103.334</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>11930.737976</v>
       </c>
       <c r="V8" s="1">
-        <v>3.314094</v>
+        <v>3.3140939999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>951.904000</v>
+        <v>951.904</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.253900</v>
+        <v>-88.253900000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>11940.896282</v>
@@ -2098,270 +2514,270 @@
         <v>3.316916</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.952000</v>
+        <v>958.952</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.741300</v>
+        <v>-76.741299999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>11951.062743</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.319740</v>
+        <v>3.3197399999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.680000</v>
+        <v>963.68</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.590100</v>
+        <v>-74.590100000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>11961.190058</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.322553</v>
+        <v>3.3225530000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.830000</v>
+        <v>970.83</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.313100</v>
+        <v>-79.313100000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>11972.242443</v>
+        <v>11972.242442999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.325623</v>
+        <v>3.3256230000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.824000</v>
+        <v>978.82399999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.908900</v>
+        <v>-90.908900000000003</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>11983.258060</v>
+        <v>11983.25806</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.328683</v>
+        <v>3.3286829999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.625000</v>
+        <v>988.625</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>11994.321822</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.331756</v>
+        <v>3.3317559999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.789000</v>
+        <v>996.78899999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.211000</v>
+        <v>-124.211</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>12005.348163</v>
+        <v>12005.348163000001</v>
       </c>
       <c r="BE8" s="1">
         <v>3.334819</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.208000</v>
+        <v>-196.208</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>12016.538623</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.337927</v>
+        <v>3.3379270000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.587000</v>
+        <v>-313.58699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>12027.436263</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.340955</v>
+        <v>3.3409550000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1208.220000</v>
+        <v>1208.22</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.641000</v>
+        <v>-499.64100000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>12038.303074</v>
+        <v>12038.303073999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.343973</v>
+        <v>3.3439730000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-704.744000</v>
+        <v>-704.74400000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>12049.101012</v>
+        <v>12049.101011999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.346973</v>
+        <v>3.3469730000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1466.310000</v>
+        <v>1466.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-923.414000</v>
+        <v>-923.41399999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>12061.851140</v>
+        <v>12061.851140000001</v>
       </c>
       <c r="CD8" s="1">
         <v>3.350514</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.270000</v>
+        <v>1826.27</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1444.570000</v>
+        <v>-1444.57</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>11889.773132</v>
       </c>
       <c r="B9" s="1">
-        <v>3.302715</v>
+        <v>3.3027150000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>897.152000</v>
+        <v>897.15200000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.024000</v>
+        <v>-199.024</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>11900.180153</v>
+        <v>11900.180152999999</v>
       </c>
       <c r="G9" s="1">
         <v>3.305606</v>
       </c>
       <c r="H9" s="1">
-        <v>915.279000</v>
+        <v>915.279</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.506000</v>
+        <v>-168.506</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>11910.687403</v>
       </c>
       <c r="L9" s="1">
-        <v>3.308524</v>
+        <v>3.3085239999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>938.580000</v>
+        <v>938.58</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.362000</v>
+        <v>-119.36199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>11920.897081</v>
+        <v>11920.897080999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.311360</v>
+        <v>3.3113600000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.338000</v>
+        <v>945.33799999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.362000</v>
+        <v>-103.36199999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>11931.077467</v>
+        <v>11931.077466999999</v>
       </c>
       <c r="V9" s="1">
-        <v>3.314188</v>
+        <v>3.3141880000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>951.866000</v>
+        <v>951.86599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.318300</v>
+        <v>-88.318299999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>11941.243444</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.317012</v>
+        <v>3.3170120000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.046000</v>
+        <v>959.04600000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.728100</v>
+        <v>-76.728099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>11951.408453</v>
@@ -2370,452 +2786,452 @@
         <v>3.319836</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.645000</v>
+        <v>963.64499999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.558100</v>
+        <v>-74.558099999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>11961.539241</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.322650</v>
+        <v>3.3226499999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.814000</v>
+        <v>970.81399999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.338600</v>
+        <v>-79.3386</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>11972.898121</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.325805</v>
+        <v>3.3258049999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.852000</v>
+        <v>978.85199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.891300</v>
+        <v>-90.891300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>11983.935130</v>
+        <v>11983.93513</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.328871</v>
+        <v>3.3288709999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.651000</v>
+        <v>988.65099999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.581000</v>
+        <v>-108.581</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>11994.742429</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.331873</v>
+        <v>3.3318729999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.819000</v>
+        <v>996.81899999999996</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.208000</v>
+        <v>-124.208</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>12005.778446</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.334938</v>
+        <v>3.3349380000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.030000</v>
+        <v>1035.03</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.219000</v>
+        <v>-196.21899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>12016.897069</v>
+        <v>12016.897069000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.338027</v>
+        <v>3.3380269999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.623000</v>
+        <v>-313.62299999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>12027.862799</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.341073</v>
+        <v>3.3410730000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.220000</v>
+        <v>1208.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.636000</v>
+        <v>-499.63600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>12038.726189</v>
+        <v>12038.726189000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.344091</v>
+        <v>3.3440910000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1329.810000</v>
+        <v>1329.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-704.802000</v>
+        <v>-704.80200000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>12050.404964</v>
+        <v>12050.404963999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.347335</v>
+        <v>3.3473350000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1466.210000</v>
+        <v>1466.21</v>
       </c>
       <c r="CA9" s="1">
-        <v>-923.411000</v>
+        <v>-923.41099999999994</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>12062.389299</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.350664</v>
+        <v>3.3506640000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.560000</v>
+        <v>1827.56</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1444.280000</v>
+        <v>-1444.28</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>11890.456086</v>
       </c>
       <c r="B10" s="1">
-        <v>3.302904</v>
+        <v>3.3029039999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>896.878000</v>
+        <v>896.87800000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.059000</v>
+        <v>-199.059</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>11900.871112</v>
+        <v>11900.871112000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.305798</v>
+        <v>3.3057979999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>915.337000</v>
+        <v>915.33699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.805000</v>
+        <v>-168.80500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>11911.031163</v>
       </c>
       <c r="L10" s="1">
-        <v>3.308620</v>
+        <v>3.3086199999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>938.400000</v>
+        <v>938.4</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.543000</v>
+        <v>-119.54300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>11921.246269</v>
+        <v>11921.246268999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.311457</v>
+        <v>3.3114569999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>945.328000</v>
+        <v>945.32799999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>11931.423179</v>
+        <v>11931.423178999999</v>
       </c>
       <c r="V10" s="1">
-        <v>3.314284</v>
+        <v>3.3142839999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>951.878000</v>
+        <v>951.87800000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.356100</v>
+        <v>-88.356099999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>11941.594147</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.317109</v>
+        <v>3.3171089999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.094000</v>
+        <v>959.09400000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.737800</v>
+        <v>-76.737799999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>11952.054742</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.320015</v>
+        <v>3.3200150000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.671000</v>
+        <v>963.67100000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.572500</v>
+        <v>-74.572500000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>11962.195943</v>
+        <v>11962.195943000001</v>
       </c>
       <c r="AK10" s="1">
         <v>3.322832</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.816000</v>
+        <v>970.81600000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.322700</v>
+        <v>-79.322699999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>11973.319753</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.325922</v>
+        <v>3.3259219999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.852000</v>
+        <v>978.85199999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.893000</v>
+        <v>-90.893000000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>11984.386955</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.328996</v>
+        <v>3.3289960000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.620000</v>
+        <v>988.62</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>11995.129837</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.331981</v>
+        <v>3.3319809999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.786000</v>
+        <v>996.78599999999994</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.188000</v>
+        <v>-124.188</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>12006.139501</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.335039</v>
+        <v>3.3350390000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.242000</v>
+        <v>-196.24199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>12017.274222</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.338132</v>
+        <v>3.3381319999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.599000</v>
+        <v>-313.59899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>12028.258111</v>
+        <v>12028.258110999999</v>
       </c>
       <c r="BO10" s="1">
         <v>3.341183</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.608000</v>
+        <v>-499.608</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>12039.147761</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.344208</v>
+        <v>3.3442080000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1329.730000</v>
+        <v>1329.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-704.844000</v>
+        <v>-704.84400000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>12050.898978</v>
+        <v>12050.898977999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.347472</v>
+        <v>3.3474719999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1466.210000</v>
+        <v>1466.21</v>
       </c>
       <c r="CA10" s="1">
-        <v>-923.419000</v>
+        <v>-923.41899999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>12062.929443</v>
+        <v>12062.929443000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.350814</v>
+        <v>3.3508140000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.550000</v>
+        <v>1826.55</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1443.300000</v>
+        <v>-1443.3</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>11890.799317</v>
+        <v>11890.799317000001</v>
       </c>
       <c r="B11" s="1">
-        <v>3.303000</v>
+        <v>3.3029999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>897.075000</v>
+        <v>897.07500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.861000</v>
+        <v>-198.86099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>11901.215832</v>
       </c>
       <c r="G11" s="1">
-        <v>3.305893</v>
+        <v>3.3058930000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>915.228000</v>
+        <v>915.22799999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.522000</v>
+        <v>-168.52199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>11911.376842</v>
@@ -2824,360 +3240,360 @@
         <v>3.308716</v>
       </c>
       <c r="M11" s="1">
-        <v>938.608000</v>
+        <v>938.60799999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.547000</v>
+        <v>-119.547</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>11921.592973</v>
+        <v>11921.592973000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.311554</v>
+        <v>3.3115540000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>945.277000</v>
+        <v>945.27700000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>11932.069968</v>
       </c>
       <c r="V11" s="1">
-        <v>3.314464</v>
+        <v>3.3144640000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>951.914000</v>
+        <v>951.91399999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.292800</v>
+        <v>-88.2928</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>11942.246354</v>
+        <v>11942.246354000001</v>
       </c>
       <c r="AA11" s="1">
         <v>3.317291</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.060000</v>
+        <v>959.06</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.770900</v>
+        <v>-76.770899999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>11952.436203</v>
+        <v>11952.436202999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.320121</v>
+        <v>3.3201209999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.687000</v>
+        <v>963.68700000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.557400</v>
+        <v>-74.557400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>11962.585302</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.322940</v>
+        <v>3.32294</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.795000</v>
+        <v>970.79499999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.312600</v>
+        <v>-79.312600000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>11973.705609</v>
+        <v>11973.705609000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.326029</v>
+        <v>3.3260290000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.841000</v>
+        <v>978.84100000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.893200</v>
+        <v>-90.893199999999993</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>11984.753498</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.329098</v>
+        <v>3.3290980000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.638000</v>
+        <v>988.63800000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.585000</v>
+        <v>-108.58499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>11995.488908</v>
+        <v>11995.488907999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.332080</v>
+        <v>3.3320799999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.817000</v>
+        <v>996.81700000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.206000</v>
+        <v>-124.206</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>12006.501121</v>
+        <v>12006.501120999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.335139</v>
+        <v>3.3351389999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.234000</v>
+        <v>-196.23400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>12017.694303</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.338248</v>
+        <v>3.3382480000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.625000</v>
+        <v>-313.625</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>12028.679390</v>
+        <v>12028.679389999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.341300</v>
+        <v>3.3412999999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.665000</v>
+        <v>-499.66500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>12039.572337</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.344326</v>
+        <v>3.3443260000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1329.670000</v>
+        <v>1329.67</v>
       </c>
       <c r="BV11" s="1">
-        <v>-704.859000</v>
+        <v>-704.85900000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>12051.262546</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.347573</v>
+        <v>3.3475730000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1466.210000</v>
+        <v>1466.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-923.480000</v>
+        <v>-923.48</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>12063.468595</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.350963</v>
+        <v>3.3509630000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.960000</v>
+        <v>1826.96</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1444.880000</v>
+        <v>-1444.88</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>11891.143541</v>
+        <v>11891.143540999999</v>
       </c>
       <c r="B12" s="1">
-        <v>3.303095</v>
+        <v>3.3030949999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>897.124000</v>
+        <v>897.12400000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.984000</v>
+        <v>-198.98400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>11901.560055</v>
       </c>
       <c r="G12" s="1">
-        <v>3.305989</v>
+        <v>3.3059889999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>915.233000</v>
+        <v>915.23299999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.562000</v>
+        <v>-168.56200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>11912.018170</v>
+        <v>11912.018169999999</v>
       </c>
       <c r="L12" s="1">
         <v>3.308894</v>
       </c>
       <c r="M12" s="1">
-        <v>938.568000</v>
+        <v>938.56799999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.694000</v>
+        <v>-119.694</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>11922.252156</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.311737</v>
+        <v>3.3117369999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>945.346000</v>
+        <v>945.346</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>11932.453375</v>
+        <v>11932.453374999999</v>
       </c>
       <c r="V12" s="1">
-        <v>3.314570</v>
+        <v>3.3145699999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>951.926000</v>
+        <v>951.92600000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.298400</v>
+        <v>-88.298400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>11942.641169</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.317400</v>
+        <v>3.3174000000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.030000</v>
+        <v>959.03</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.750200</v>
+        <v>-76.750200000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>11952.779397</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.320216</v>
+        <v>3.3202159999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.669000</v>
+        <v>963.66899999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.569200</v>
+        <v>-74.569199999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>11962.933031</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.323037</v>
+        <v>3.3230369999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.823000</v>
+        <v>970.82299999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.337200</v>
+        <v>-79.337199999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>11974.065740</v>
+        <v>11974.06574</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.326129</v>
+        <v>3.3261289999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.837000</v>
+        <v>978.83699999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.905600</v>
+        <v>-90.905600000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>11985.115596</v>
@@ -3186,13 +3602,13 @@
         <v>3.329199</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.620000</v>
+        <v>988.62</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.592000</v>
+        <v>-108.592</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>11995.903564</v>
@@ -3201,497 +3617,497 @@
         <v>3.332195</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.785000</v>
+        <v>996.78499999999997</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.206000</v>
+        <v>-124.206</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>12006.917758</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.335255</v>
+        <v>3.3352550000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.010000</v>
+        <v>1035.01</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.218000</v>
+        <v>-196.21799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>12018.038030</v>
+        <v>12018.03803</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.338344</v>
+        <v>3.3383440000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.638000</v>
+        <v>-313.63799999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>12029.079471</v>
+        <v>12029.079470999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.341411</v>
+        <v>3.3414109999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.240000</v>
+        <v>1208.24</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.623000</v>
+        <v>-499.62299999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>12040.002864</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.344445</v>
+        <v>3.3444449999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1329.610000</v>
+        <v>1329.61</v>
       </c>
       <c r="BV12" s="1">
-        <v>-704.925000</v>
+        <v>-704.92499999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>12051.709937</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.347697</v>
+        <v>3.3476970000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1466.120000</v>
+        <v>1466.12</v>
       </c>
       <c r="CA12" s="1">
-        <v>-923.430000</v>
+        <v>-923.43</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>12064.008737</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.351114</v>
+        <v>3.3511139999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.430000</v>
+        <v>1827.43</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1443.030000</v>
+        <v>-1443.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>11891.793797</v>
       </c>
       <c r="B13" s="1">
-        <v>3.303276</v>
+        <v>3.3032759999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>897.079000</v>
+        <v>897.07899999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.888000</v>
+        <v>-198.88800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>11902.211270</v>
+        <v>11902.21127</v>
       </c>
       <c r="G13" s="1">
-        <v>3.306170</v>
+        <v>3.3061699999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>915.072000</v>
+        <v>915.072</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.643000</v>
+        <v>-168.643</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>11912.413023</v>
+        <v>11912.413022999999</v>
       </c>
       <c r="L13" s="1">
-        <v>3.309004</v>
+        <v>3.3090039999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>938.669000</v>
+        <v>938.66899999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.659000</v>
+        <v>-119.65900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>11922.640491</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.311845</v>
+        <v>3.3118449999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>945.372000</v>
+        <v>945.37199999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>11932.800048</v>
+        <v>11932.800047999999</v>
       </c>
       <c r="V13" s="1">
         <v>3.314667</v>
       </c>
       <c r="W13" s="1">
-        <v>951.851000</v>
+        <v>951.851</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.250200</v>
+        <v>-88.250200000000007</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>11942.982913</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.317495</v>
+        <v>3.3174950000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.998000</v>
+        <v>958.99800000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.671700</v>
+        <v>-76.671700000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>11953.123652</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.320312</v>
+        <v>3.3203119999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.633000</v>
+        <v>963.63300000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.551000</v>
+        <v>-74.551000000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11963.285164</v>
+        <v>11963.285164000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.323135</v>
+        <v>3.3231350000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.822000</v>
+        <v>970.822</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.320400</v>
+        <v>-79.320400000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>11974.475399</v>
+        <v>11974.475399000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.326243</v>
+        <v>3.3262429999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.851000</v>
+        <v>978.851</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.921500</v>
+        <v>-90.921499999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>11985.549890</v>
+        <v>11985.54989</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.329319</v>
+        <v>3.3293189999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.636000</v>
+        <v>988.63599999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.588000</v>
+        <v>-108.58799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>11996.206653</v>
+        <v>11996.206652999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.332280</v>
+        <v>3.3322799999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.805000</v>
+        <v>996.80499999999995</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.208000</v>
+        <v>-124.208</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>12007.221276</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.335339</v>
+        <v>3.3353389999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.240000</v>
+        <v>-196.24</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>12018.424413</v>
+        <v>12018.424413000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.338451</v>
+        <v>3.3384510000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.616000</v>
+        <v>-313.61599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>12029.498590</v>
+        <v>12029.498589999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.341527</v>
+        <v>3.3415270000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.220000</v>
+        <v>1208.22</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.648000</v>
+        <v>-499.64800000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>12040.414544</v>
+        <v>12040.414543999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.344560</v>
+        <v>3.34456</v>
       </c>
       <c r="BU13" s="1">
-        <v>1329.480000</v>
+        <v>1329.48</v>
       </c>
       <c r="BV13" s="1">
-        <v>-704.885000</v>
+        <v>-704.88499999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>12052.141990</v>
+        <v>12052.14199</v>
       </c>
       <c r="BY13" s="1">
         <v>3.347817</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1466.170000</v>
+        <v>1466.17</v>
       </c>
       <c r="CA13" s="1">
-        <v>-923.409000</v>
+        <v>-923.40899999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>12064.547889</v>
+        <v>12064.547888999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.351263</v>
+        <v>3.3512629999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.230000</v>
+        <v>1826.23</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1443.930000</v>
+        <v>-1443.93</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>11892.163347</v>
       </c>
       <c r="B14" s="1">
-        <v>3.303379</v>
+        <v>3.3033790000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>897.002000</v>
+        <v>897.00199999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.205000</v>
+        <v>-199.20500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>11902.596173</v>
       </c>
       <c r="G14" s="1">
-        <v>3.306277</v>
+        <v>3.3062770000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>915.368000</v>
+        <v>915.36800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.322000</v>
+        <v>-168.322</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>11912.758234</v>
+        <v>11912.758234000001</v>
       </c>
       <c r="L14" s="1">
-        <v>3.309100</v>
+        <v>3.3090999999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>938.522000</v>
+        <v>938.52200000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.756000</v>
+        <v>-119.756</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>11922.989675</v>
+        <v>11922.989675000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.311942</v>
+        <v>3.3119420000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>945.371000</v>
+        <v>945.37099999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>11933.142782</v>
+        <v>11933.142782000001</v>
       </c>
       <c r="V14" s="1">
         <v>3.314762</v>
       </c>
       <c r="W14" s="1">
-        <v>951.852000</v>
+        <v>951.85199999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.352600</v>
+        <v>-88.352599999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>11943.340528</v>
+        <v>11943.340528000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.317595</v>
+        <v>3.3175949999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.125000</v>
+        <v>959.125</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.801400</v>
+        <v>-76.801400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>11953.535299</v>
+        <v>11953.535298999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.320426</v>
+        <v>3.3204259999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.683000</v>
+        <v>963.68299999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.548400</v>
+        <v>-74.548400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>11963.694890</v>
+        <v>11963.694890000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.323249</v>
+        <v>3.3232490000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.827000</v>
+        <v>970.827</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.325900</v>
+        <v>-79.325900000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>11974.785399</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.326329</v>
+        <v>3.3263289999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.843000</v>
+        <v>978.84299999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.918700</v>
+        <v>-90.918700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>11985.848168</v>
@@ -3700,88 +4116,88 @@
         <v>3.329402</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.610000</v>
+        <v>988.61</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>11996.565516</v>
+        <v>11996.565516000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>3.332379</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.805000</v>
+        <v>996.80499999999995</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.224000</v>
+        <v>-124.224</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>12007.582363</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.335440</v>
+        <v>3.3354400000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.030000</v>
+        <v>1035.03</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.209000</v>
+        <v>-196.209</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>12018.800914</v>
+        <v>12018.800913999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.338556</v>
+        <v>3.3385560000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.632000</v>
+        <v>-313.63200000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>12030.230686</v>
+        <v>12030.230686000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.341731</v>
+        <v>3.3417309999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.220000</v>
+        <v>1208.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.665000</v>
+        <v>-499.66500000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>12040.847091</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.344680</v>
+        <v>3.3446799999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1329.430000</v>
+        <v>1329.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-704.886000</v>
+        <v>-704.88599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>12052.562065</v>
@@ -3790,60 +4206,60 @@
         <v>3.347934</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1466.230000</v>
+        <v>1466.23</v>
       </c>
       <c r="CA14" s="1">
-        <v>-923.331000</v>
+        <v>-923.33100000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>12065.090015</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.351414</v>
+        <v>3.3514140000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1827.640000</v>
+        <v>1827.64</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1444.200000</v>
+        <v>-1444.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>11892.512532</v>
+        <v>11892.512532000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.303476</v>
+        <v>3.3034759999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>897.085000</v>
+        <v>897.08500000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.041000</v>
+        <v>-199.041</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>11902.939436</v>
+        <v>11902.939436000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.306372</v>
+        <v>3.3063720000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>914.958000</v>
+        <v>914.95799999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.803000</v>
+        <v>-168.803</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>11913.106249</v>
@@ -3852,949 +4268,949 @@
         <v>3.309196</v>
       </c>
       <c r="M15" s="1">
-        <v>938.505000</v>
+        <v>938.505</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.564000</v>
+        <v>-119.56399999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>11923.335425</v>
+        <v>11923.335424999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.312038</v>
+        <v>3.3120379999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>945.328000</v>
+        <v>945.32799999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>11933.548013</v>
       </c>
       <c r="V15" s="1">
-        <v>3.314874</v>
+        <v>3.3148740000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>951.803000</v>
+        <v>951.803</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.339600</v>
+        <v>-88.339600000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>11943.767087</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.317713</v>
+        <v>3.3177129999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.852000</v>
+        <v>958.85199999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.679700</v>
+        <v>-76.679699999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>11953.815570</v>
+        <v>11953.815570000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.320504</v>
+        <v>3.3205040000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.679000</v>
+        <v>963.67899999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.565100</v>
+        <v>-74.565100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>11963.990966</v>
+        <v>11963.990965999999</v>
       </c>
       <c r="AK15" s="1">
         <v>3.323331</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.806000</v>
+        <v>970.80600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.323900</v>
+        <v>-79.323899999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>11975.143014</v>
+        <v>11975.143013999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.326429</v>
+        <v>3.3264290000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.850000</v>
+        <v>978.85</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.899600</v>
+        <v>-90.899600000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>11986.211736</v>
+        <v>11986.211735999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.329503</v>
+        <v>3.3295029999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.633000</v>
+        <v>988.63300000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.593000</v>
+        <v>-108.593</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>11996.923337</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.332479</v>
+        <v>3.3324790000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.800000</v>
+        <v>996.8</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.228000</v>
+        <v>-124.22799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>12007.945436</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.335540</v>
+        <v>3.3355399999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.030000</v>
+        <v>1035.03</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.236000</v>
+        <v>-196.23599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>12019.551323</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.338764</v>
+        <v>3.3387639999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.642000</v>
+        <v>-313.642</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>12030.736606</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.341871</v>
+        <v>3.3418709999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.200000</v>
+        <v>1208.2</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.637000</v>
+        <v>-499.637</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>12041.272624</v>
+        <v>12041.272623999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.344798</v>
+        <v>3.3447979999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-704.862000</v>
+        <v>-704.86199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>12052.986145</v>
+        <v>12052.986145000001</v>
       </c>
       <c r="BY15" s="1">
         <v>3.348052</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1466.180000</v>
+        <v>1466.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-923.420000</v>
+        <v>-923.42</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>12065.629199</v>
+        <v>12065.629199000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.351564</v>
+        <v>3.3515640000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1827.100000</v>
+        <v>1827.1</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1443.110000</v>
+        <v>-1443.11</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>11892.852259</v>
+        <v>11892.852258999999</v>
       </c>
       <c r="B16" s="1">
-        <v>3.303570</v>
+        <v>3.3035700000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>897.053000</v>
+        <v>897.053</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.024000</v>
+        <v>-199.024</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>11903.284613</v>
       </c>
       <c r="G16" s="1">
-        <v>3.306468</v>
+        <v>3.3064680000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>915.221000</v>
+        <v>915.221</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.342000</v>
+        <v>-168.34200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>11913.517609</v>
       </c>
       <c r="L16" s="1">
-        <v>3.309310</v>
+        <v>3.30931</v>
       </c>
       <c r="M16" s="1">
-        <v>938.549000</v>
+        <v>938.54899999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.562000</v>
+        <v>-119.562</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>11923.748096</v>
+        <v>11923.748095999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.312152</v>
+        <v>3.3121520000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>945.349000</v>
+        <v>945.34900000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>11933.840157</v>
+        <v>11933.840157000001</v>
       </c>
       <c r="V16" s="1">
         <v>3.314956</v>
       </c>
       <c r="W16" s="1">
-        <v>951.904000</v>
+        <v>951.904</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.305500</v>
+        <v>-88.305499999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>11944.045343</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.317790</v>
+        <v>3.31779</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.009000</v>
+        <v>959.00900000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.700900</v>
+        <v>-76.700900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>11954.159266</v>
+        <v>11954.159266000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.320600</v>
+        <v>3.3206000000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.685000</v>
+        <v>963.68499999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.553400</v>
+        <v>-74.553399999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>11964.342134</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.323428</v>
+        <v>3.3234279999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.805000</v>
+        <v>970.80499999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.353500</v>
+        <v>-79.353499999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>11975.497190</v>
+        <v>11975.49719</v>
       </c>
       <c r="AP16" s="1">
         <v>3.326527</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.824000</v>
+        <v>978.82399999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.901500</v>
+        <v>-90.901499999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>11986.575303</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.329604</v>
+        <v>3.3296039999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.610000</v>
+        <v>988.61</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.589000</v>
+        <v>-108.589</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>11997.646040</v>
+        <v>11997.64604</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.332679</v>
+        <v>3.3326790000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.791000</v>
+        <v>996.79100000000005</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.226000</v>
+        <v>-124.226</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>12008.664379</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.335740</v>
+        <v>3.3357399999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.230000</v>
+        <v>-196.23</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>12019.924811</v>
+        <v>12019.924811000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.338868</v>
+        <v>3.3388680000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.613000</v>
+        <v>-313.613</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>12031.145884</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.341985</v>
+        <v>3.3419850000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.661000</v>
+        <v>-499.661</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>12041.688270</v>
+        <v>12041.688270000001</v>
       </c>
       <c r="BT16" s="1">
         <v>3.344913</v>
       </c>
       <c r="BU16" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="BV16" s="1">
-        <v>-704.829000</v>
+        <v>-704.82899999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>12053.710328</v>
+        <v>12053.710327999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.348253</v>
+        <v>3.3482530000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1466.270000</v>
+        <v>1466.27</v>
       </c>
       <c r="CA16" s="1">
-        <v>-923.497000</v>
+        <v>-923.49699999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>12066.470381</v>
+        <v>12066.470380999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.351797</v>
+        <v>3.3517969999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1828.070000</v>
+        <v>1828.07</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1443.920000</v>
+        <v>-1443.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>11893.279347</v>
       </c>
       <c r="B17" s="1">
-        <v>3.303689</v>
+        <v>3.3036889999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>897.037000</v>
+        <v>897.03700000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.981000</v>
+        <v>-198.98099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>11903.719109</v>
       </c>
       <c r="G17" s="1">
-        <v>3.306589</v>
+        <v>3.3065889999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>915.112000</v>
+        <v>915.11199999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.483000</v>
+        <v>-168.483</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>11913.816204</v>
+        <v>11913.816204000001</v>
       </c>
       <c r="L17" s="1">
         <v>3.309393</v>
       </c>
       <c r="M17" s="1">
-        <v>938.383000</v>
+        <v>938.38300000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.514000</v>
+        <v>-119.514</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>11924.047642</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.312235</v>
+        <v>3.3122349999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>945.341000</v>
+        <v>945.34100000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.320000</v>
+        <v>-103.32</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>11934.184903</v>
+        <v>11934.184902999999</v>
       </c>
       <c r="V17" s="1">
         <v>3.315051</v>
       </c>
       <c r="W17" s="1">
-        <v>951.798000</v>
+        <v>951.798</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.353500</v>
+        <v>-88.353499999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>11944.393039</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.317887</v>
+        <v>3.3178869999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.038000</v>
+        <v>959.03800000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.706400</v>
+        <v>-76.706400000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>11954.504018</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.320696</v>
+        <v>3.3206959999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.683000</v>
+        <v>963.68299999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.551500</v>
+        <v>-74.551500000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>11964.692309</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.323526</v>
+        <v>3.3235260000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.834000</v>
+        <v>970.83399999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.329200</v>
+        <v>-79.3292</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>11976.224293</v>
+        <v>11976.224292999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.326729</v>
+        <v>3.3267289999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.858000</v>
+        <v>978.85799999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.905700</v>
+        <v>-90.905699999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>11987.302934</v>
+        <v>11987.302933999999</v>
       </c>
       <c r="AU17" s="1">
         <v>3.329806</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.614000</v>
+        <v>988.61400000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.575000</v>
+        <v>-108.575</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>11998.019528</v>
+        <v>11998.019528000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.332783</v>
+        <v>3.3327830000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.789000</v>
+        <v>996.78899999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.215000</v>
+        <v>-124.215</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>12009.027209</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.335841</v>
+        <v>3.3358409999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.233000</v>
+        <v>-196.233</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>12020.303755</v>
+        <v>12020.303755000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.338973</v>
+        <v>3.3389730000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.623000</v>
+        <v>-313.62299999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>12031.856075</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.342182</v>
+        <v>3.3421820000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.190000</v>
+        <v>1208.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.660000</v>
+        <v>-499.66</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>12042.415405</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.345115</v>
+        <v>3.3451149999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1329.380000</v>
+        <v>1329.38</v>
       </c>
       <c r="BV17" s="1">
-        <v>-704.702000</v>
+        <v>-704.702</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>12053.829838</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.348286</v>
+        <v>3.3482859999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1466.260000</v>
+        <v>1466.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-923.498000</v>
+        <v>-923.49800000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>12066.707470</v>
+        <v>12066.707469999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.351863</v>
+        <v>3.3518629999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.810000</v>
+        <v>1827.81</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1444.040000</v>
+        <v>-1444.04</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>11893.549667</v>
+        <v>11893.549666999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.303764</v>
+        <v>3.3037640000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.189000</v>
+        <v>897.18899999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.096000</v>
+        <v>-199.096</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>11903.981492</v>
+        <v>11903.981492000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.306662</v>
+        <v>3.3066620000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>915.034000</v>
+        <v>915.03399999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.602000</v>
+        <v>-168.602</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>11914.161416</v>
+        <v>11914.161416000001</v>
       </c>
       <c r="L18" s="1">
-        <v>3.309489</v>
+        <v>3.3094890000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>938.477000</v>
+        <v>938.47699999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.484000</v>
+        <v>-119.48399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>11924.393353</v>
+        <v>11924.393352999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.312331</v>
+        <v>3.3123309999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>945.315000</v>
+        <v>945.31500000000005</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.320000</v>
+        <v>-103.32</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>11934.528108</v>
       </c>
       <c r="V18" s="1">
-        <v>3.315147</v>
+        <v>3.3151470000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>951.925000</v>
+        <v>951.92499999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.318200</v>
+        <v>-88.318200000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>11944.742223</v>
+        <v>11944.742222999999</v>
       </c>
       <c r="AA18" s="1">
         <v>3.317984</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.004000</v>
+        <v>959.00400000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.756200</v>
+        <v>-76.756200000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>11955.187970</v>
+        <v>11955.187970000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.320886</v>
+        <v>3.3208859999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.640000</v>
+        <v>963.64</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.537400</v>
+        <v>-74.537400000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>11965.388723</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.323719</v>
+        <v>3.3237190000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.807000</v>
+        <v>970.80700000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.344000</v>
+        <v>-79.343999999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>11976.608724</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.326836</v>
+        <v>3.3268360000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.844000</v>
+        <v>978.84400000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.899200</v>
+        <v>-90.899199999999993</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>11987.694278</v>
+        <v>11987.694278000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.329915</v>
+        <v>3.3299150000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.616000</v>
+        <v>988.61599999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.586000</v>
+        <v>-108.586</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>11998.397945</v>
+        <v>11998.397945000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.332888</v>
+        <v>3.3328880000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.790000</v>
+        <v>996.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.194000</v>
+        <v>-124.194</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>12009.909096</v>
+        <v>12009.909095999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.336086</v>
+        <v>3.3360859999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.030000</v>
+        <v>1035.03</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.217000</v>
+        <v>-196.21700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>12021.006124</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.339168</v>
+        <v>3.3391679999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.620000</v>
+        <v>-313.62</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>12031.968700</v>
+        <v>12031.968699999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.342214</v>
+        <v>3.3422139999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.180000</v>
+        <v>1208.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.652000</v>
+        <v>-499.65199999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>12042.544877</v>
@@ -4803,60 +5219,60 @@
         <v>3.345151</v>
       </c>
       <c r="BU18" s="1">
-        <v>1329.340000</v>
+        <v>1329.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-704.682000</v>
+        <v>-704.68200000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>12054.264334</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.348407</v>
+        <v>3.3484069999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1466.260000</v>
+        <v>1466.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-923.322000</v>
+        <v>-923.322</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>12067.227276</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.352008</v>
+        <v>3.3520080000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.070000</v>
+        <v>1827.07</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1442.910000</v>
+        <v>-1442.91</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>11893.892370</v>
+        <v>11893.89237</v>
       </c>
       <c r="B19" s="1">
-        <v>3.303859</v>
+        <v>3.3038590000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>897.023000</v>
+        <v>897.02300000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.103000</v>
+        <v>-199.10300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>11904.321748</v>
@@ -4865,270 +5281,270 @@
         <v>3.306756</v>
       </c>
       <c r="H19" s="1">
-        <v>914.992000</v>
+        <v>914.99199999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.685000</v>
+        <v>-168.685</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>11914.505607</v>
+        <v>11914.505606999999</v>
       </c>
       <c r="L19" s="1">
-        <v>3.309585</v>
+        <v>3.3095850000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>938.559000</v>
+        <v>938.55899999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.683000</v>
+        <v>-119.68300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>11924.742538</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.312428</v>
+        <v>3.3124280000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>945.372000</v>
+        <v>945.37199999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>11935.211100</v>
+        <v>11935.2111</v>
       </c>
       <c r="V19" s="1">
-        <v>3.315336</v>
+        <v>3.3153359999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>951.835000</v>
+        <v>951.83500000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.232300</v>
+        <v>-88.232299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>11945.440589</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.318178</v>
+        <v>3.3181780000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.023000</v>
+        <v>959.02300000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.717200</v>
+        <v>-76.717200000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>11955.533680</v>
+        <v>11955.53368</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.320982</v>
+        <v>3.3209819999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.663000</v>
+        <v>963.66300000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.578800</v>
+        <v>-74.578800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>11965.735923</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.323816</v>
+        <v>3.3238159999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.822000</v>
+        <v>970.822</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.339100</v>
+        <v>-79.339100000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>11976.970307</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.326936</v>
+        <v>3.3269359999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.827000</v>
+        <v>978.827</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.903000</v>
+        <v>-90.903000000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>11988.056357</v>
+        <v>11988.056356999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.330016</v>
+        <v>3.3300160000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.614000</v>
+        <v>988.61400000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.594000</v>
+        <v>-108.59399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>11999.060632</v>
+        <v>11999.060632000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>3.333072</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.803000</v>
+        <v>996.803</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.212000</v>
+        <v>-124.212</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>12010.545497</v>
+        <v>12010.545496999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.336263</v>
+        <v>3.3362630000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.231000</v>
+        <v>-196.23099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>12021.453977</v>
+        <v>12021.453976999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.339293</v>
+        <v>3.3392930000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.631000</v>
+        <v>-313.63099999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>12032.371451</v>
+        <v>12032.371451000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.342325</v>
+        <v>3.3423250000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.200000</v>
+        <v>1208.2</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.635000</v>
+        <v>-499.63499999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>12042.956541</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.345266</v>
+        <v>3.3452660000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="BV19" s="1">
-        <v>-704.645000</v>
+        <v>-704.64499999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>12054.684968</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.348524</v>
+        <v>3.3485239999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1466.180000</v>
+        <v>1466.18</v>
       </c>
       <c r="CA19" s="1">
-        <v>-923.417000</v>
+        <v>-923.41700000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>12067.742620</v>
+        <v>12067.742620000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.352151</v>
+        <v>3.3521510000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1826.510000</v>
+        <v>1826.51</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1444.100000</v>
+        <v>-1444.1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>11894.236129</v>
+        <v>11894.236129000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.303954</v>
+        <v>3.3039540000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>897.154000</v>
+        <v>897.154</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.021000</v>
+        <v>-199.02099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>11904.669972</v>
       </c>
       <c r="G20" s="1">
-        <v>3.306853</v>
+        <v>3.3068529999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>915.107000</v>
+        <v>915.10699999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.812000</v>
+        <v>-168.81200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>11915.197031</v>
@@ -5137,133 +5553,133 @@
         <v>3.309777</v>
       </c>
       <c r="M20" s="1">
-        <v>938.647000</v>
+        <v>938.64700000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.643000</v>
+        <v>-119.643</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>11925.441434</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.312623</v>
+        <v>3.3126229999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.352000</v>
+        <v>945.35199999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.365000</v>
+        <v>-103.36499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>11935.558331</v>
       </c>
       <c r="V20" s="1">
-        <v>3.315433</v>
+        <v>3.3154330000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>951.937000</v>
+        <v>951.93700000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.332600</v>
+        <v>-88.332599999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>11945.788285</v>
+        <v>11945.788285000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.318275</v>
+        <v>3.3182749999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.075000</v>
+        <v>959.07500000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.723900</v>
+        <v>-76.7239</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>11955.876912</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.321077</v>
+        <v>3.3210769999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.680000</v>
+        <v>963.68</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.543300</v>
+        <v>-74.543300000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>11966.086066</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.323913</v>
+        <v>3.3239130000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.798000</v>
+        <v>970.798</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.330200</v>
+        <v>-79.330200000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>11977.633435</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.327120</v>
+        <v>3.3271199999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.820000</v>
+        <v>978.82</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.919400</v>
+        <v>-90.919399999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>11988.656518</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.330182</v>
+        <v>3.3301820000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.593000</v>
+        <v>988.59299999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.581000</v>
+        <v>-108.581</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>11999.484182</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.333190</v>
+        <v>3.3331900000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.784000</v>
+        <v>996.78399999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.218000</v>
+        <v>-124.218</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>12010.875306</v>
@@ -5272,135 +5688,135 @@
         <v>3.336354</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.206000</v>
+        <v>-196.20599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>12021.853258</v>
+        <v>12021.853257999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>3.339404</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.630000</v>
+        <v>-313.63</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>12032.769706</v>
+        <v>12032.769705999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.342436</v>
+        <v>3.3424360000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.686000</v>
+        <v>-499.68599999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>12043.391036</v>
+        <v>12043.391036000001</v>
       </c>
       <c r="BT20" s="1">
         <v>3.345386</v>
       </c>
       <c r="BU20" s="1">
-        <v>1329.310000</v>
+        <v>1329.31</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.571000</v>
+        <v>-704.57100000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>12055.106044</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.348641</v>
+        <v>3.3486410000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1466.170000</v>
+        <v>1466.17</v>
       </c>
       <c r="CA20" s="1">
-        <v>-923.464000</v>
+        <v>-923.46400000000006</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>12068.261931</v>
+        <v>12068.261930999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.352295</v>
+        <v>3.3522949999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.120000</v>
+        <v>1827.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1444.510000</v>
+        <v>-1444.51</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>11894.917600</v>
+        <v>11894.917600000001</v>
       </c>
       <c r="B21" s="1">
         <v>3.304144</v>
       </c>
       <c r="C21" s="1">
-        <v>897.020000</v>
+        <v>897.02</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.110000</v>
+        <v>-199.11</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>11905.358882</v>
       </c>
       <c r="G21" s="1">
-        <v>3.307044</v>
+        <v>3.3070439999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>915.212000</v>
+        <v>915.21199999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.630000</v>
+        <v>-168.63</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>11915.545249</v>
+        <v>11915.545249000001</v>
       </c>
       <c r="L21" s="1">
-        <v>3.309874</v>
+        <v>3.3098740000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>938.627000</v>
+        <v>938.62699999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.610000</v>
+        <v>-119.61</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>11925.789593</v>
@@ -5409,270 +5825,270 @@
         <v>3.312719</v>
       </c>
       <c r="R21" s="1">
-        <v>945.363000</v>
+        <v>945.36300000000006</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>11935.899579</v>
+        <v>11935.899579000001</v>
       </c>
       <c r="V21" s="1">
         <v>3.315528</v>
       </c>
       <c r="W21" s="1">
-        <v>951.895000</v>
+        <v>951.89499999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.232900</v>
+        <v>-88.232900000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>11946.134524</v>
+        <v>11946.134523999999</v>
       </c>
       <c r="AA21" s="1">
         <v>3.318371</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.962000</v>
+        <v>958.96199999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.621900</v>
+        <v>-76.621899999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>11956.528160</v>
+        <v>11956.52816</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.321258</v>
+        <v>3.3212579999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.656000</v>
+        <v>963.65599999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.574500</v>
+        <v>-74.5745</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>11966.739330</v>
+        <v>11966.73933</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.324094</v>
+        <v>3.3240940000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.821000</v>
+        <v>970.82100000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.332300</v>
+        <v>-79.332300000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>11978.075867</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.327243</v>
+        <v>3.3272430000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.818000</v>
+        <v>978.81799999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.918500</v>
+        <v>-90.918499999999995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>11988.787460</v>
+        <v>11988.78746</v>
       </c>
       <c r="AU21" s="1">
         <v>3.330219</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.615000</v>
+        <v>988.61500000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.600000</v>
+        <v>-108.6</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>11999.858662</v>
+        <v>11999.858662000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>3.333294</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.799000</v>
+        <v>996.79899999999998</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.216000</v>
+        <v>-124.21599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>12011.232424</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.336453</v>
+        <v>3.3364530000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.230000</v>
+        <v>-196.23</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>12022.232239</v>
+        <v>12022.232239000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.339509</v>
+        <v>3.3395090000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.637000</v>
+        <v>-313.637</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>12033.189855</v>
+        <v>12033.189855000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.342553</v>
+        <v>3.3425530000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.676000</v>
+        <v>-499.67599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>12043.819581</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.345505</v>
+        <v>3.3455050000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.552000</v>
+        <v>-704.55200000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>12055.532604</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.348759</v>
+        <v>3.3487589999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1466.230000</v>
+        <v>1466.23</v>
       </c>
       <c r="CA21" s="1">
-        <v>-923.434000</v>
+        <v>-923.43399999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>12068.781278</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.352439</v>
+        <v>3.3524389999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.450000</v>
+        <v>1827.45</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1444.570000</v>
+        <v>-1444.57</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>11895.259871</v>
       </c>
       <c r="B22" s="1">
-        <v>3.304239</v>
+        <v>3.3042389999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>897.009000</v>
+        <v>897.00900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.130000</v>
+        <v>-199.13</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>11905.701123</v>
+        <v>11905.701123000001</v>
       </c>
       <c r="G22" s="1">
-        <v>3.307139</v>
+        <v>3.3071389999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>915.431000</v>
+        <v>915.43100000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.415000</v>
+        <v>-168.41499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>11915.892420</v>
+        <v>11915.89242</v>
       </c>
       <c r="L22" s="1">
-        <v>3.309970</v>
+        <v>3.3099699999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>938.654000</v>
+        <v>938.654</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.749000</v>
+        <v>-119.749</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>11926.137314</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.312816</v>
+        <v>3.3128160000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>945.302000</v>
+        <v>945.30200000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.346000</v>
+        <v>-103.346</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>11936.553273</v>
@@ -5681,497 +6097,497 @@
         <v>3.315709</v>
       </c>
       <c r="W22" s="1">
-        <v>951.853000</v>
+        <v>951.85299999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.237200</v>
+        <v>-88.237200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>11946.782765</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.318551</v>
+        <v>3.3185509999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.020000</v>
+        <v>959.02</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.701100</v>
+        <v>-76.701099999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>11956.906112</v>
+        <v>11956.906112000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.321363</v>
+        <v>3.3213629999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.702000</v>
+        <v>963.702</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.540200</v>
+        <v>-74.540199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>11967.131666</v>
+        <v>11967.131665999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.324203</v>
+        <v>3.3242029999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.801000</v>
+        <v>970.80100000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.320900</v>
+        <v>-79.320899999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>11978.436983</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.327344</v>
+        <v>3.3273440000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.824000</v>
+        <v>978.82399999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.936000</v>
+        <v>-90.936000000000007</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>11989.186245</v>
+        <v>11989.186245000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.330330</v>
+        <v>3.33033</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.615000</v>
+        <v>988.61500000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.585000</v>
+        <v>-108.58499999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>12000.249509</v>
+        <v>12000.249508999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.333403</v>
+        <v>3.3334030000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.795000</v>
+        <v>996.79499999999996</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.209000</v>
+        <v>-124.209</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>12011.649062</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.336569</v>
+        <v>3.3365689999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>12022.648344</v>
+        <v>12022.648343999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.339625</v>
+        <v>3.3396249999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.850000</v>
+        <v>1100.8499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.643000</v>
+        <v>-313.64299999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>12033.586121</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.342663</v>
+        <v>3.3426629999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.180000</v>
+        <v>1208.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.678000</v>
+        <v>-499.678</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>12044.226300</v>
+        <v>12044.2263</v>
       </c>
       <c r="BT22" s="1">
         <v>3.345618</v>
       </c>
       <c r="BU22" s="1">
-        <v>1329.270000</v>
+        <v>1329.27</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.502000</v>
+        <v>-704.50199999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>12055.947259</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.348874</v>
+        <v>3.3488739999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1466.210000</v>
+        <v>1466.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-923.467000</v>
+        <v>-923.46699999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>12069.330315</v>
+        <v>12069.330314999999</v>
       </c>
       <c r="CD22" s="1">
         <v>3.352592</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.220000</v>
+        <v>1826.22</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1444.320000</v>
+        <v>-1444.32</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>11895.601615</v>
       </c>
       <c r="B23" s="1">
-        <v>3.304334</v>
+        <v>3.3043339999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>897.189000</v>
+        <v>897.18899999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.026000</v>
+        <v>-199.02600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>11906.043857</v>
+        <v>11906.043857000001</v>
       </c>
       <c r="G23" s="1">
-        <v>3.307234</v>
+        <v>3.3072339999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>915.056000</v>
+        <v>915.05600000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.276000</v>
+        <v>-168.27600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>11916.547636</v>
+        <v>11916.547635999999</v>
       </c>
       <c r="L23" s="1">
         <v>3.310152</v>
       </c>
       <c r="M23" s="1">
-        <v>938.496000</v>
+        <v>938.49599999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.680000</v>
+        <v>-119.68</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>11926.797958</v>
+        <v>11926.797957999999</v>
       </c>
       <c r="Q23" s="1">
         <v>3.312999</v>
       </c>
       <c r="R23" s="1">
-        <v>945.360000</v>
+        <v>945.36</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>11936.928744</v>
+        <v>11936.928744000001</v>
       </c>
       <c r="V23" s="1">
         <v>3.315814</v>
       </c>
       <c r="W23" s="1">
-        <v>951.849000</v>
+        <v>951.84900000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.248900</v>
+        <v>-88.248900000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>11947.184029</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.318662</v>
+        <v>3.3186619999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.922000</v>
+        <v>958.92200000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.767800</v>
+        <v>-76.767799999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>11957.247854</v>
+        <v>11957.247853999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.321458</v>
+        <v>3.3214579999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.655000</v>
+        <v>963.65499999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.555400</v>
+        <v>-74.555400000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>11967.477872</v>
+        <v>11967.477871999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.324299</v>
+        <v>3.3242989999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.785000</v>
+        <v>970.78499999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.311500</v>
+        <v>-79.311499999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>11978.799063</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.327444</v>
+        <v>3.3274439999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.824000</v>
+        <v>978.82399999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.924300</v>
+        <v>-90.924300000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>11989.611315</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.330448</v>
+        <v>3.3304480000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.630000</v>
+        <v>988.63</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.582000</v>
+        <v>-108.58199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>12000.658213</v>
+        <v>12000.658213000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.333516</v>
+        <v>3.3335159999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.820000</v>
+        <v>996.82</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.204000</v>
+        <v>-124.20399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>12011.955095</v>
+        <v>12011.955094999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.336654</v>
+        <v>3.3366539999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>12023.004967</v>
+        <v>12023.004967000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.339724</v>
+        <v>3.3397239999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.622000</v>
+        <v>-313.62200000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>12034.011690</v>
+        <v>12034.011689999999</v>
       </c>
       <c r="BO23" s="1">
         <v>3.342781</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.681000</v>
+        <v>-499.68099999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>12044.661787</v>
+        <v>12044.661786999999</v>
       </c>
       <c r="BT23" s="1">
         <v>3.345739</v>
       </c>
       <c r="BU23" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.497000</v>
+        <v>-704.49699999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>12056.403612</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.349001</v>
+        <v>3.3490009999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1466.230000</v>
+        <v>1466.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-923.585000</v>
+        <v>-923.58500000000004</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>12069.861076</v>
+        <v>12069.861075999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.352739</v>
+        <v>3.3527390000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.560000</v>
+        <v>1827.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1444.240000</v>
+        <v>-1444.24</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>11896.241020</v>
+        <v>11896.241019999999</v>
       </c>
       <c r="B24" s="1">
-        <v>3.304511</v>
+        <v>3.3045110000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>897.094000</v>
+        <v>897.09400000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.946000</v>
+        <v>-198.946</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>11906.695639</v>
       </c>
       <c r="G24" s="1">
-        <v>3.307415</v>
+        <v>3.3074150000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>915.040000</v>
+        <v>915.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.408000</v>
+        <v>-168.40799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>11916.927572</v>
+        <v>11916.927572000001</v>
       </c>
       <c r="L24" s="1">
-        <v>3.310258</v>
+        <v>3.3102580000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>938.570000</v>
+        <v>938.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.315000</v>
+        <v>-119.315</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>11927.184341</v>
@@ -6180,13 +6596,13 @@
         <v>3.313107</v>
       </c>
       <c r="R24" s="1">
-        <v>945.366000</v>
+        <v>945.36599999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.323000</v>
+        <v>-103.32299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>11937.273491</v>
@@ -6195,13 +6611,13 @@
         <v>3.315909</v>
       </c>
       <c r="W24" s="1">
-        <v>951.887000</v>
+        <v>951.88699999999994</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.262900</v>
+        <v>-88.262900000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>11947.531723</v>
@@ -6210,240 +6626,240 @@
         <v>3.318759</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.975000</v>
+        <v>958.97500000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.746200</v>
+        <v>-76.746200000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>11957.592573</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.321553</v>
+        <v>3.3215530000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.660000</v>
+        <v>963.66</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.561500</v>
+        <v>-74.561499999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>11967.828512</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.324397</v>
+        <v>3.3243969999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.784000</v>
+        <v>970.78399999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.315300</v>
+        <v>-79.315299999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>11979.221121</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.327561</v>
+        <v>3.3275610000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.828000</v>
+        <v>978.82799999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.903200</v>
+        <v>-90.903199999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>11989.914371</v>
+        <v>11989.914371000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.330532</v>
+        <v>3.3305319999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.601000</v>
+        <v>988.601</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.592000</v>
+        <v>-108.592</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>12000.961765</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.333600</v>
+        <v>3.3336000000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.780000</v>
+        <v>996.78</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.240000</v>
+        <v>-124.24</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>12012.317173</v>
+        <v>12012.317172999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.336755</v>
+        <v>3.3367550000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.030000</v>
+        <v>1035.03</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.236000</v>
+        <v>-196.23599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>12023.382455</v>
+        <v>12023.382455000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.339828</v>
+        <v>3.3398279999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.607000</v>
+        <v>-313.60700000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>12034.407993</v>
+        <v>12034.407993000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.342891</v>
+        <v>3.3428909999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.230000</v>
+        <v>1208.23</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.654000</v>
+        <v>-499.654</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>12045.089835</v>
+        <v>12045.089835000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.345858</v>
+        <v>3.3458580000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.473000</v>
+        <v>-704.47299999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>12056.850507</v>
+        <v>12056.850506999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.349125</v>
+        <v>3.3491249999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1466.240000</v>
+        <v>1466.24</v>
       </c>
       <c r="CA24" s="1">
-        <v>-923.411000</v>
+        <v>-923.41099999999994</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>12070.378895</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.352883</v>
+        <v>3.3528829999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1827.460000</v>
+        <v>1827.46</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1443.560000</v>
+        <v>-1443.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>11896.626349</v>
       </c>
       <c r="B25" s="1">
-        <v>3.304618</v>
+        <v>3.3046180000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>897.105000</v>
+        <v>897.10500000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.974000</v>
+        <v>-198.97399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>11907.082976</v>
       </c>
       <c r="G25" s="1">
-        <v>3.307523</v>
+        <v>3.3075230000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>915.077000</v>
+        <v>915.077</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.153000</v>
+        <v>-168.15299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>11917.273284</v>
+        <v>11917.273284000001</v>
       </c>
       <c r="L25" s="1">
-        <v>3.310354</v>
+        <v>3.3103539999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>938.486000</v>
+        <v>938.48599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.556000</v>
+        <v>-119.556</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>11927.533061</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.313204</v>
+        <v>3.3132039999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>945.329000</v>
+        <v>945.32899999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>11937.616199</v>
@@ -6452,28 +6868,28 @@
         <v>3.316004</v>
       </c>
       <c r="W25" s="1">
-        <v>951.862000</v>
+        <v>951.86199999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.279400</v>
+        <v>-88.279399999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>11947.878435</v>
+        <v>11947.878435000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.318855</v>
+        <v>3.3188550000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.928000</v>
+        <v>958.928</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.524600</v>
+        <v>-76.524600000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>11958.008221</v>
@@ -6482,13 +6898,13 @@
         <v>3.321669</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.659000</v>
+        <v>963.65899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.570700</v>
+        <v>-74.570700000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>11968.258049</v>
@@ -6497,43 +6913,43 @@
         <v>3.324516</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.792000</v>
+        <v>970.79200000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.318100</v>
+        <v>-79.318100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>11979.517065</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.327644</v>
+        <v>3.3276439999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.820000</v>
+        <v>978.82</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.918300</v>
+        <v>-90.918300000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>11990.281914</v>
+        <v>11990.281913999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.330634</v>
+        <v>3.3306339999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.627000</v>
+        <v>988.62699999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.577000</v>
+        <v>-108.577</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>12001.324341</v>
@@ -6542,58 +6958,58 @@
         <v>3.333701</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.807000</v>
+        <v>996.80700000000002</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.205000</v>
+        <v>-124.205</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>12012.678292</v>
+        <v>12012.678292000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.336855</v>
+        <v>3.3368549999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.251000</v>
+        <v>-196.251</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>12023.757894</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.339933</v>
+        <v>3.3399329999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.625000</v>
+        <v>-313.625</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>12034.825159</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.343007</v>
+        <v>3.3430070000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.655000</v>
+        <v>-499.65499999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>12045.515411</v>
@@ -6602,150 +7018,150 @@
         <v>3.345977</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.430000</v>
+        <v>1329.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.370000</v>
+        <v>-704.37</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>12057.305306</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.349251</v>
+        <v>3.3492510000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1466.180000</v>
+        <v>1466.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-923.493000</v>
+        <v>-923.49300000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>12070.896711</v>
+        <v>12070.896710999999</v>
       </c>
       <c r="CD25" s="1">
         <v>3.353027</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.280000</v>
+        <v>1826.28</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1443.530000</v>
+        <v>-1443.53</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>11896.972527</v>
       </c>
       <c r="B26" s="1">
-        <v>3.304715</v>
+        <v>3.3047149999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>897.313000</v>
+        <v>897.31299999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.046000</v>
+        <v>-199.04599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>11907.425744</v>
       </c>
       <c r="G26" s="1">
-        <v>3.307618</v>
+        <v>3.3076180000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>915.326000</v>
+        <v>915.32600000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.052000</v>
+        <v>-168.05199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>11917.618029</v>
+        <v>11917.618028999999</v>
       </c>
       <c r="L26" s="1">
-        <v>3.310449</v>
+        <v>3.3104490000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>938.575000</v>
+        <v>938.57500000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.549000</v>
+        <v>-119.54900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>11927.948677</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.313319</v>
+        <v>3.3133189999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>945.325000</v>
+        <v>945.32500000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>11938.018456</v>
       </c>
       <c r="V26" s="1">
-        <v>3.316116</v>
+        <v>3.3161160000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>951.856000</v>
+        <v>951.85599999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.197600</v>
+        <v>-88.197599999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>11948.372939</v>
+        <v>11948.372939000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.318992</v>
+        <v>3.3189920000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.932000</v>
+        <v>958.93200000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.667000</v>
+        <v>-76.667000000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>11958.303873</v>
+        <v>11958.303873000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.321751</v>
+        <v>3.3217509999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.644000</v>
+        <v>963.64400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.573300</v>
+        <v>-74.573300000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>11968.987663</v>
@@ -6754,73 +7170,73 @@
         <v>3.324719</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.802000</v>
+        <v>970.80200000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.327400</v>
+        <v>-79.327399999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>11979.880336</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.327745</v>
+        <v>3.3277450000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.848000</v>
+        <v>978.84799999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.917600</v>
+        <v>-90.917599999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>11990.643489</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.330734</v>
+        <v>3.3307340000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.596000</v>
+        <v>988.596</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.578000</v>
+        <v>-108.578</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>12001.683939</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.333801</v>
+        <v>3.3338009999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.783000</v>
+        <v>996.78300000000002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.218000</v>
+        <v>-124.218</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>12013.406885</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.337057</v>
+        <v>3.3370570000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.241000</v>
+        <v>-196.24100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>12024.506389</v>
@@ -6829,75 +7245,76 @@
         <v>3.340141</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.626000</v>
+        <v>-313.62599999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>12035.222919</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.343117</v>
+        <v>3.3431169999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.210000</v>
+        <v>1208.21</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.696000</v>
+        <v>-499.69600000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>12045.935017</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.346093</v>
+        <v>3.3460930000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.500000</v>
+        <v>1329.5</v>
       </c>
       <c r="BV26" s="1">
-        <v>-704.348000</v>
+        <v>-704.34799999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>12057.755210</v>
+        <v>12057.755209999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.349376</v>
+        <v>3.3493759999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1466.150000</v>
+        <v>1466.15</v>
       </c>
       <c r="CA26" s="1">
-        <v>-923.578000</v>
+        <v>-923.57799999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>12071.727510</v>
+        <v>12071.727510000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.353258</v>
+        <v>3.3532579999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.570000</v>
+        <v>1826.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1444.470000</v>
+        <v>-1444.47</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>